--- a/project/handleCpdcData/total/input/统计.xlsx
+++ b/project/handleCpdcData/total/input/统计.xlsx
@@ -14,15 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>医院</t>
   </si>
   <si>
-    <t>缺失病例数据（19年7月统计）</t>
-  </si>
-  <si>
-    <t>补充病例数据（19年9月统计）</t>
+    <t>缺失病例数（19年7月统计）</t>
+  </si>
+  <si>
+    <t>补充病例数（19年9月统计）</t>
+  </si>
+  <si>
+    <t>待补充</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>统计时间为2016年1月1日至2018年12月31日，每份病例完整度达到100%方为完全上报</t>
   </si>
   <si>
     <t>北京大学第三医院</t>
@@ -148,11 +157,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -168,10 +177,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -183,14 +192,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,25 +229,48 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -235,8 +282,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,82 +327,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -335,43 +337,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,19 +457,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,115 +511,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,6 +528,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -549,30 +577,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,11 +607,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,10 +634,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -644,146 +646,155 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1172,447 +1183,609 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="38.25" customWidth="1"/>
-    <col min="2" max="3" width="30.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.375" customWidth="1"/>
+    <col min="2" max="3" width="27.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="42.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" ht="33" customHeight="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>109</v>
       </c>
       <c r="C2" s="1">
+        <f>B2-D2</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
+    <row r="3" spans="1:4">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>162</v>
       </c>
       <c r="C3" s="1">
+        <f t="shared" ref="C3:C39" si="0">B3-D3</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
+    <row r="4" spans="1:4">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>134</v>
       </c>
       <c r="C4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
+    <row r="5" spans="1:4">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>46</v>
       </c>
       <c r="C5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="B6" s="1">
         <v>180</v>
       </c>
       <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="4">
+    <row r="7" spans="1:4">
+      <c r="A7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="7">
         <v>145</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
+    <row r="8" spans="1:4">
+      <c r="A8" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="B8" s="1">
         <v>148</v>
       </c>
       <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
+    <row r="9" spans="1:4">
+      <c r="A9" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="B9" s="1">
         <v>293</v>
       </c>
       <c r="C9" s="1">
+        <f>B9-D9</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
         <v>293</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
+    <row r="10" spans="1:4">
+      <c r="A10" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="B10" s="1">
         <v>234</v>
       </c>
       <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
         <v>234</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
-        <v>12</v>
+    <row r="11" spans="1:4">
+      <c r="A11" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="B11" s="1">
         <v>423</v>
       </c>
       <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
         <v>423</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>13</v>
+    <row r="12" spans="1:4">
+      <c r="A12" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="B12" s="1">
         <v>96</v>
       </c>
       <c r="C12" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>14</v>
+    <row r="13" spans="1:4">
+      <c r="A13" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="B13" s="1">
         <v>229</v>
       </c>
       <c r="C13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
         <v>229</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
+    <row r="14" spans="1:4">
+      <c r="A14" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="B14" s="1">
         <v>842</v>
       </c>
       <c r="C14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
         <v>842</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>16</v>
+    <row r="15" spans="1:4">
+      <c r="A15" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="B15" s="1">
         <v>193</v>
       </c>
       <c r="C15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>17</v>
+    <row r="16" spans="1:4">
+      <c r="A16" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="B16" s="1">
         <v>76</v>
       </c>
       <c r="C16" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>18</v>
+    <row r="17" spans="1:4">
+      <c r="A17" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="B17" s="1">
         <v>256</v>
       </c>
       <c r="C17" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
         <v>256</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="5">
+    <row r="18" spans="1:4">
+      <c r="A18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="8">
         <v>234</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="8">
         <v>234</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>20</v>
+    <row r="19" spans="1:4">
+      <c r="A19" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="B19" s="1">
         <v>201</v>
       </c>
       <c r="C19" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>21</v>
+    <row r="20" spans="1:4">
+      <c r="A20" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="B20" s="1">
         <v>161</v>
       </c>
       <c r="C20" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
-        <v>22</v>
+    <row r="21" spans="1:4">
+      <c r="A21" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="B21" s="1">
         <v>104</v>
       </c>
       <c r="C21" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>23</v>
+    <row r="22" spans="1:4">
+      <c r="A22" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B22" s="1">
         <v>374</v>
       </c>
       <c r="C22" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
         <v>374</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
-        <v>24</v>
+    <row r="23" spans="1:4">
+      <c r="A23" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="B23" s="1">
         <v>231</v>
       </c>
       <c r="C23" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
         <v>231</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
-        <v>25</v>
+    <row r="24" spans="1:4">
+      <c r="A24" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="B24" s="1">
         <v>1071</v>
       </c>
       <c r="C24" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
         <v>1071</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2" t="s">
-        <v>26</v>
+    <row r="25" spans="1:4">
+      <c r="A25" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="B25" s="1">
         <v>81</v>
       </c>
       <c r="C25" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="2" t="s">
-        <v>27</v>
+    <row r="26" spans="1:4">
+      <c r="A26" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="B26" s="1">
         <v>253</v>
       </c>
       <c r="C26" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
         <v>253</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="2" t="s">
-        <v>28</v>
+    <row r="27" spans="1:4">
+      <c r="A27" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="B27" s="1">
         <v>147</v>
       </c>
       <c r="C27" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="2" t="s">
-        <v>29</v>
+    <row r="28" spans="1:4">
+      <c r="A28" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="B28" s="1">
         <v>85</v>
       </c>
       <c r="C28" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="2" t="s">
-        <v>30</v>
+    <row r="29" spans="1:4">
+      <c r="A29" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="B29" s="1">
         <v>190</v>
       </c>
       <c r="C29" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
         <v>190</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2" t="s">
-        <v>31</v>
+    <row r="30" spans="1:4">
+      <c r="A30" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="B30" s="1">
         <v>243</v>
       </c>
       <c r="C30" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
         <v>243</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="2" t="s">
-        <v>32</v>
+    <row r="31" spans="1:4">
+      <c r="A31" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B31" s="1">
         <v>322</v>
       </c>
       <c r="C31" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
         <v>322</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="2" t="s">
-        <v>33</v>
+    <row r="32" spans="1:4">
+      <c r="A32" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="B32" s="1">
         <v>136</v>
       </c>
       <c r="C32" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
         <v>136</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2" t="s">
-        <v>34</v>
+    <row r="33" spans="1:4">
+      <c r="A33" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="B33" s="1">
         <v>194</v>
       </c>
       <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
         <v>194</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="2" t="s">
-        <v>35</v>
+    <row r="34" spans="1:23">
+      <c r="A34" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="B34" s="1">
         <v>205</v>
       </c>
       <c r="C34" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
         <v>205</v>
       </c>
-      <c r="F34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="2" t="s">
-        <v>37</v>
+      <c r="W34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="B35" s="1">
         <v>422</v>
       </c>
       <c r="C35" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
         <v>422</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="2" t="s">
-        <v>38</v>
+    <row r="36" spans="1:4">
+      <c r="A36" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="B36" s="1">
         <v>89</v>
       </c>
       <c r="C36" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="2" t="s">
-        <v>39</v>
+    <row r="37" spans="1:4">
+      <c r="A37" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="B37" s="1">
         <v>122</v>
       </c>
       <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="2" t="s">
-        <v>40</v>
+    <row r="38" spans="1:4">
+      <c r="A38" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="B38" s="1">
         <v>310</v>
       </c>
       <c r="C38" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
         <v>310</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="2" t="s">
-        <v>41</v>
+    <row r="39" spans="1:4">
+      <c r="A39" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="B39" s="1">
         <v>150</v>
       </c>
       <c r="C39" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
         <v>150</v>
       </c>
     </row>
